--- a/CASUAL/LA ONT/AUSTRIA, KIM.xlsx
+++ b/CASUAL/LA ONT/AUSTRIA, KIM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>8/1-4/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,7 +989,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,7 +1053,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,7 +1113,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1179,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1242,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1340,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1399,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1464,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1507,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1582,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1834,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1892,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1958,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2014,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2089,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2132,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2198,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2254,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2350,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2694,12 +2697,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3825" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3825" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2865,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.582999999999998</v>
+        <v>50.465999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3988,19 +3991,19 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="39"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4029,7 +4032,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4049,17 +4052,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39">
-        <v>2</v>
-      </c>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4069,53 +4068,57 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>44805</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39">
+        <v>2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4135,11 +4138,9 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B71" s="20"/>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
@@ -4153,42 +4154,44 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="49">
-        <v>44901</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="A72" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="49">
+        <v>44901</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44957</v>
+      <c r="A73" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4197,11 +4200,9 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -4215,16 +4216,14 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>44960</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -4236,20 +4235,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H75" s="39">
-        <v>1</v>
-      </c>
+      <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="49">
-        <v>44999</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
@@ -4260,24 +4259,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="39">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39">
-        <v>1</v>
-      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4287,39 +4286,41 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
-        <v>45075</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45077</v>
+      </c>
       <c r="B78" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39">
+        <v>1</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49" t="s">
-        <v>67</v>
+      <c r="K78" s="49">
+        <v>45075</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39">
-        <v>1</v>
-      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4329,18 +4330,18 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49">
-        <v>45083</v>
+      <c r="K79" s="49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
@@ -4351,43 +4352,41 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49" t="s">
-        <v>69</v>
+      <c r="K80" s="49">
+        <v>45083</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39">
+        <v>2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>70</v>
-      </c>
+        <v>45107</v>
+      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39">
-        <v>4</v>
-      </c>
+      <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4397,19 +4396,21 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B83" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>4</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -4419,11 +4420,13 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4443,7 +4446,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4463,11 +4466,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45230</v>
+      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -4481,57 +4482,63 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
-        <v>45289</v>
-      </c>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45260</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="49">
-        <v>45286</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>45286</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45291</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5259,20 +5266,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H135" s="43"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5319,7 +5342,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,10 +5406,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>56</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J3" s="47">
         <v>17</v>

--- a/CASUAL/LA ONT/AUSTRIA, KIM.xlsx
+++ b/CASUAL/LA ONT/AUSTRIA, KIM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2697,12 +2703,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3825" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2871,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.465999999999994</v>
+        <v>50.435000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4117,19 +4123,19 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D70" s="39"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4138,7 +4144,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4158,15 +4164,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4176,42 +4184,44 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="49">
-        <v>44901</v>
-      </c>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="A73" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="49">
+        <v>44901</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44957</v>
+      <c r="A74" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4220,11 +4230,9 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
@@ -4238,16 +4246,14 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
-        <v>44960</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -4259,20 +4265,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39">
-        <v>1</v>
-      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="49">
-        <v>44999</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B77" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
@@ -4283,24 +4289,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="39"/>
+      <c r="H77" s="39">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39">
-        <v>1</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -4310,39 +4316,41 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49">
-        <v>45075</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45077</v>
+      </c>
       <c r="B79" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39">
+        <v>1</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49" t="s">
-        <v>67</v>
+      <c r="K79" s="49">
+        <v>45075</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39">
-        <v>1</v>
-      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -4352,18 +4360,18 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49">
-        <v>45083</v>
+      <c r="K80" s="49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
@@ -4374,43 +4382,41 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49" t="s">
-        <v>69</v>
+      <c r="K81" s="49">
+        <v>45083</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D82" s="39"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39">
+        <v>2</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>70</v>
-      </c>
+        <v>45107</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39">
-        <v>4</v>
-      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -4420,19 +4426,21 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B84" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>4</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -4442,11 +4450,13 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4466,7 +4476,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4486,11 +4496,9 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45230</v>
+      </c>
+      <c r="B87" s="20"/>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
@@ -4504,57 +4512,63 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49">
-        <v>45289</v>
-      </c>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45260</v>
+      </c>
       <c r="B88" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="49">
-        <v>45286</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>45286</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45291</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5282,20 +5296,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H136" s="43"/>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5407,11 +5437,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11700000000000001</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="J3" s="47">
         <v>17</v>
